--- a/File/fields_number_byte.xlsx
+++ b/File/fields_number_byte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuadianPro\Core\S_MISR\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmedhamed\Documents\GitHub\S_MISR\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>0x80</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>bitmap[9]</t>
+  </si>
+  <si>
+    <t>bitmap[10]</t>
+  </si>
+  <si>
+    <t>bitmap[11]</t>
+  </si>
+  <si>
+    <t>bitmap[12]</t>
+  </si>
+  <si>
+    <t>bitmap[13]</t>
+  </si>
+  <si>
+    <t>bitmap[14]</t>
+  </si>
+  <si>
+    <t>bitmap[15]</t>
   </si>
 </sst>
 </file>
@@ -423,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +452,7 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -465,8 +483,26 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +536,26 @@
       <c r="K2">
         <v>73</v>
       </c>
+      <c r="L2">
+        <v>81</v>
+      </c>
+      <c r="M2">
+        <v>89</v>
+      </c>
+      <c r="N2">
+        <v>97</v>
+      </c>
+      <c r="O2">
+        <v>105</v>
+      </c>
+      <c r="P2">
+        <v>113</v>
+      </c>
+      <c r="Q2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -535,8 +589,26 @@
       <c r="K3">
         <v>74</v>
       </c>
+      <c r="L3">
+        <v>82</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>98</v>
+      </c>
+      <c r="O3">
+        <v>106</v>
+      </c>
+      <c r="P3">
+        <v>114</v>
+      </c>
+      <c r="Q3">
+        <v>122</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,8 +642,26 @@
       <c r="K4">
         <v>75</v>
       </c>
+      <c r="L4">
+        <v>83</v>
+      </c>
+      <c r="M4">
+        <v>91</v>
+      </c>
+      <c r="N4">
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>107</v>
+      </c>
+      <c r="P4">
+        <v>115</v>
+      </c>
+      <c r="Q4">
+        <v>123</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -605,8 +695,26 @@
       <c r="K5">
         <v>76</v>
       </c>
+      <c r="L5">
+        <v>84</v>
+      </c>
+      <c r="M5">
+        <v>92</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>108</v>
+      </c>
+      <c r="P5">
+        <v>116</v>
+      </c>
+      <c r="Q5">
+        <v>124</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,8 +748,26 @@
       <c r="K6">
         <v>77</v>
       </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>93</v>
+      </c>
+      <c r="N6">
+        <v>101</v>
+      </c>
+      <c r="O6">
+        <v>109</v>
+      </c>
+      <c r="P6">
+        <v>117</v>
+      </c>
+      <c r="Q6">
+        <v>125</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,8 +801,26 @@
       <c r="K7">
         <v>78</v>
       </c>
+      <c r="L7">
+        <v>86</v>
+      </c>
+      <c r="M7">
+        <v>94</v>
+      </c>
+      <c r="N7">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>110</v>
+      </c>
+      <c r="P7">
+        <v>118</v>
+      </c>
+      <c r="Q7">
+        <v>126</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,8 +854,26 @@
       <c r="K8">
         <v>79</v>
       </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <v>95</v>
+      </c>
+      <c r="N8">
+        <v>103</v>
+      </c>
+      <c r="O8">
+        <v>111</v>
+      </c>
+      <c r="P8">
+        <v>119</v>
+      </c>
+      <c r="Q8">
+        <v>127</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,6 +906,24 @@
       </c>
       <c r="K9">
         <v>80</v>
+      </c>
+      <c r="L9">
+        <v>88</v>
+      </c>
+      <c r="M9">
+        <v>96</v>
+      </c>
+      <c r="N9">
+        <v>104</v>
+      </c>
+      <c r="O9">
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <v>120</v>
+      </c>
+      <c r="Q9">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/File/fields_number_byte.xlsx
+++ b/File/fields_number_byte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmedhamed\Documents\GitHub\S_MISR\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bank Miser\Core\S_MISR\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
